--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_18_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_18_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2204753.038196702</v>
+        <v>2183004.558454988</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12062936.15886391</v>
+        <v>12062936.15886392</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4184108.078182774</v>
+        <v>4184108.078182777</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8289204.698819367</v>
+        <v>8289204.698819365</v>
       </c>
     </row>
     <row r="11">
@@ -1378,19 +1378,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>85.17289288835077</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>225.7508892923954</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1536,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>101.4631932301576</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>150.4771497629685</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1618,10 +1618,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>72.5717110591501</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>95.92502041856162</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1767,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>15.0743711067576</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>72.71091072000208</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>3.186321549969671</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>321.4267434728698</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>163.6898441249713</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>94.29644372182793</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>120.6088074159602</v>
       </c>
       <c r="H20" t="n">
-        <v>205.1127822067371</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>13.89072837997169</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744755</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>399.468401205308</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
@@ -2374,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>168.1158122680954</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>140.3769888899853</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>113.215098922233</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2557,13 +2557,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>238.7809396517846</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,7 +2572,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>242.7840558312778</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.6898441249713</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>71.49367430371667</v>
       </c>
     </row>
     <row r="29">
@@ -2803,16 +2803,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>161.0997007707195</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>54.35958206012796</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>18.93482921065007</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>209.1480822693392</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3034,10 +3034,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>277.9642125695852</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>67.88571179025759</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>74.75769145492396</v>
+        <v>74.75769145492339</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3283,10 +3283,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>126.5388824951706</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3328,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>276.7320215053124</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>163.6898441249708</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3483,16 +3483,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>42.86209348694693</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3511,19 +3511,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>145.2477902017526</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>275.8041337882015</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>181.1375494785988</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>87.83762944231115</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3745,10 +3745,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>346.4719254930607</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>58.92805047991983</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>143.0846856374331</v>
       </c>
       <c r="W43" t="n">
-        <v>168.8716414565309</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>38.18739105194234</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3994,10 +3994,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>17.35112070699398</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>63.10873435712737</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>77.84724700848565</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1594.601034732593</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C11" t="n">
-        <v>1225.638517792182</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="D11" t="n">
-        <v>867.3728191854311</v>
+        <v>194.542240332463</v>
       </c>
       <c r="E11" t="n">
-        <v>481.5845665871869</v>
+        <v>194.542240332463</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>194.542240332463</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>194.542240332463</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5065,28 +5065,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U11" t="n">
-        <v>3097.574620303721</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>3097.574620303721</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W11" t="n">
-        <v>2744.805965033606</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X11" t="n">
-        <v>2371.340206772526</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y11" t="n">
-        <v>1981.200874796715</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5135,13 +5135,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5153,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>532.4548862703364</v>
+        <v>782.1832931068176</v>
       </c>
       <c r="C13" t="n">
-        <v>363.5187033424295</v>
+        <v>613.2471101789107</v>
       </c>
       <c r="D13" t="n">
-        <v>213.4020639300938</v>
+        <v>463.1304707665749</v>
       </c>
       <c r="E13" t="n">
-        <v>213.4020639300938</v>
+        <v>315.2173771841818</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218342</v>
+        <v>315.2173771841818</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T13" t="n">
-        <v>1775.297427115797</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="U13" t="n">
-        <v>1486.194560241441</v>
+        <v>1446.505797040962</v>
       </c>
       <c r="V13" t="n">
-        <v>1231.510072035554</v>
+        <v>1191.821308835075</v>
       </c>
       <c r="W13" t="n">
-        <v>942.0929019985934</v>
+        <v>1191.821308835075</v>
       </c>
       <c r="X13" t="n">
-        <v>714.1033511005761</v>
+        <v>963.8317579370573</v>
       </c>
       <c r="Y13" t="n">
-        <v>714.1033511005761</v>
+        <v>963.8317579370573</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2005.586939522201</v>
+        <v>1252.833343223196</v>
       </c>
       <c r="C14" t="n">
-        <v>1636.624422581789</v>
+        <v>883.8708262827843</v>
       </c>
       <c r="D14" t="n">
-        <v>1278.358723975039</v>
+        <v>525.6051276760338</v>
       </c>
       <c r="E14" t="n">
-        <v>892.5704713767946</v>
+        <v>139.8168750777896</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5302,28 +5302,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U14" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W14" t="n">
-        <v>2862.546497866152</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X14" t="n">
-        <v>2489.080739605072</v>
+        <v>2029.572515263129</v>
       </c>
       <c r="Y14" t="n">
-        <v>2392.186779586323</v>
+        <v>1639.433183287318</v>
       </c>
     </row>
     <row r="15">
@@ -5348,37 +5348,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>622.8136871311521</v>
+        <v>231.8553933260925</v>
       </c>
       <c r="C16" t="n">
-        <v>453.8775042032452</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D16" t="n">
-        <v>453.8775042032452</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E16" t="n">
-        <v>453.8775042032452</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F16" t="n">
-        <v>453.8775042032452</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G16" t="n">
-        <v>286.1746675779641</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H16" t="n">
-        <v>139.9574807958219</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760407</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S16" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T16" t="n">
-        <v>1615.697475415547</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="U16" t="n">
-        <v>1615.697475415547</v>
+        <v>1224.739181610487</v>
       </c>
       <c r="V16" t="n">
-        <v>1361.01298720966</v>
+        <v>970.0546934046005</v>
       </c>
       <c r="W16" t="n">
-        <v>1071.5958171727</v>
+        <v>680.6375233676399</v>
       </c>
       <c r="X16" t="n">
-        <v>843.6062662746822</v>
+        <v>452.6479724696226</v>
       </c>
       <c r="Y16" t="n">
-        <v>622.8136871311521</v>
+        <v>231.8553933260925</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1990.120246683345</v>
+        <v>1888.09808975843</v>
       </c>
       <c r="C17" t="n">
-        <v>1621.157729742934</v>
+        <v>1519.135572818019</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5533,34 +5533,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T17" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U17" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V17" t="n">
-        <v>3119.628073993393</v>
+        <v>3000.932343353746</v>
       </c>
       <c r="W17" t="n">
-        <v>2766.859418723279</v>
+        <v>2648.163688083632</v>
       </c>
       <c r="X17" t="n">
-        <v>2766.859418723279</v>
+        <v>2274.697929822552</v>
       </c>
       <c r="Y17" t="n">
-        <v>2376.720086747467</v>
+        <v>2274.697929822552</v>
       </c>
     </row>
     <row r="18">
@@ -5585,22 +5585,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5612,10 +5612,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.51211643218342</v>
+        <v>628.7269654071706</v>
       </c>
       <c r="C19" t="n">
-        <v>66.51211643218342</v>
+        <v>459.7907824792637</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218342</v>
+        <v>309.674143066928</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218342</v>
+        <v>161.7610494845349</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218342</v>
+        <v>161.7610494845349</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>161.7610494845349</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>161.7610494845349</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5694,10 +5694,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S19" t="n">
         <v>1735.608663915319</v>
@@ -5706,19 +5706,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1224.739181610489</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V19" t="n">
-        <v>970.0546934046018</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W19" t="n">
-        <v>680.6375233676413</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="X19" t="n">
-        <v>452.6479724696239</v>
+        <v>1031.16800938094</v>
       </c>
       <c r="Y19" t="n">
-        <v>231.8553933260938</v>
+        <v>810.3754302374103</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2212.771568013854</v>
+        <v>1712.341567565137</v>
       </c>
       <c r="C20" t="n">
-        <v>1843.809051073443</v>
+        <v>1343.379050624725</v>
       </c>
       <c r="D20" t="n">
-        <v>1485.543352466692</v>
+        <v>985.1133520179749</v>
       </c>
       <c r="E20" t="n">
-        <v>1099.755099868448</v>
+        <v>599.3250994197306</v>
       </c>
       <c r="F20" t="n">
-        <v>688.7691950788405</v>
+        <v>188.339194630123</v>
       </c>
       <c r="G20" t="n">
-        <v>273.696744923837</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5767,37 +5767,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W20" t="n">
-        <v>2972.837166339056</v>
+        <v>2862.54649786615</v>
       </c>
       <c r="X20" t="n">
-        <v>2599.371408077976</v>
+        <v>2489.08073960507</v>
       </c>
       <c r="Y20" t="n">
-        <v>2599.371408077976</v>
+        <v>2098.941407629259</v>
       </c>
     </row>
     <row r="21">
@@ -5807,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601609</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
         <v>1685.951113992584</v>
@@ -5852,31 +5852,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1647.790611648416</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C22" t="n">
-        <v>1478.854428720509</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D22" t="n">
-        <v>1478.854428720509</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E22" t="n">
-        <v>1478.854428720509</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F22" t="n">
-        <v>1478.854428720509</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S22" t="n">
-        <v>3044.089480193525</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T22" t="n">
-        <v>2822.322864763051</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U22" t="n">
-        <v>2822.322864763051</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V22" t="n">
-        <v>2567.638376557164</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W22" t="n">
-        <v>2278.221206520203</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X22" t="n">
-        <v>2050.231655622186</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y22" t="n">
-        <v>1829.439076478656</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1998.104470293511</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C23" t="n">
-        <v>1629.141953353099</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D23" t="n">
-        <v>1270.876254746348</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E23" t="n">
-        <v>885.0880021481041</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F23" t="n">
         <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810556</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U23" t="n">
-        <v>3072.075344883007</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="V23" t="n">
-        <v>2741.012457539437</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="W23" t="n">
-        <v>2388.243802269322</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X23" t="n">
-        <v>2388.243802269322</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y23" t="n">
-        <v>1998.104470293511</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064582</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J24" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6086,7 +6086,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q24" t="n">
         <v>2565.053542533341</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>278.1964793938714</v>
+        <v>651.5308283972842</v>
       </c>
       <c r="C25" t="n">
-        <v>278.1964793938714</v>
+        <v>651.5308283972842</v>
       </c>
       <c r="D25" t="n">
-        <v>278.1964793938714</v>
+        <v>501.4141889849484</v>
       </c>
       <c r="E25" t="n">
-        <v>278.1964793938714</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F25" t="n">
-        <v>278.1964793938714</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G25" t="n">
-        <v>278.1964793938714</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H25" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J25" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L25" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N25" t="n">
         <v>1317.747152581905</v>
@@ -6168,31 +6168,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S25" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T25" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U25" t="n">
-        <v>1224.739181610489</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V25" t="n">
-        <v>970.0546934046018</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W25" t="n">
-        <v>680.6375233676413</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X25" t="n">
-        <v>680.6375233676413</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="Y25" t="n">
-        <v>459.8449442241111</v>
+        <v>651.5308283972842</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2175.400891308158</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C26" t="n">
-        <v>1934.208022973022</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D26" t="n">
-        <v>1575.942324366272</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E26" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F26" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="V26" t="n">
-        <v>3325.605821609171</v>
+        <v>2994.542934265598</v>
       </c>
       <c r="W26" t="n">
-        <v>3325.605821609171</v>
+        <v>2641.774278995484</v>
       </c>
       <c r="X26" t="n">
-        <v>2952.140063348092</v>
+        <v>2396.53785896389</v>
       </c>
       <c r="Y26" t="n">
-        <v>2562.00073137228</v>
+        <v>2006.398526988078</v>
       </c>
     </row>
     <row r="27">
@@ -6299,19 +6299,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6323,7 +6323,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q27" t="n">
         <v>2565.053542533341</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>231.8553933260938</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C28" t="n">
-        <v>231.8553933260938</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D28" t="n">
-        <v>231.8553933260938</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E28" t="n">
-        <v>231.8553933260938</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F28" t="n">
-        <v>231.8553933260938</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J28" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K28" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L28" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N28" t="n">
         <v>1317.747152581905</v>
@@ -6405,10 +6405,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S28" t="n">
         <v>1735.608663915319</v>
@@ -6417,19 +6417,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U28" t="n">
-        <v>1224.739181610489</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V28" t="n">
-        <v>970.0546934046018</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W28" t="n">
-        <v>680.6375233676413</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X28" t="n">
-        <v>452.6479724696239</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y28" t="n">
-        <v>231.8553933260938</v>
+        <v>380.4321398396066</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1681.836054204828</v>
+        <v>2102.492507030336</v>
       </c>
       <c r="C29" t="n">
-        <v>1312.873537264416</v>
+        <v>1733.529990089924</v>
       </c>
       <c r="D29" t="n">
-        <v>954.607838657666</v>
+        <v>1375.264291483174</v>
       </c>
       <c r="E29" t="n">
-        <v>568.8195860594217</v>
+        <v>989.4760388849297</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0926155839475</v>
+        <v>578.4901340953222</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>163.4176839403187</v>
       </c>
       <c r="H29" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993391</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450754</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.97538618064</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="X29" t="n">
-        <v>2071.97538618064</v>
+        <v>2492.631839006148</v>
       </c>
       <c r="Y29" t="n">
-        <v>1681.836054204828</v>
+        <v>2102.492507030336</v>
       </c>
     </row>
     <row r="30">
@@ -6536,19 +6536,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6560,7 +6560,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q30" t="n">
         <v>2565.053542533341</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>701.1808689801002</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="C31" t="n">
-        <v>532.2446860521933</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D31" t="n">
-        <v>382.1280466398576</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E31" t="n">
-        <v>234.2149530574645</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F31" t="n">
-        <v>234.2149530574645</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J31" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K31" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L31" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N31" t="n">
         <v>1317.747152581905</v>
@@ -6642,31 +6642,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q31" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R31" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S31" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T31" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U31" t="n">
-        <v>1638.191681214136</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V31" t="n">
-        <v>1383.507193008249</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W31" t="n">
-        <v>1094.090022971289</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X31" t="n">
-        <v>882.8293338103399</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y31" t="n">
-        <v>882.8293338103399</v>
+        <v>231.8553933260934</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1647.321240915451</v>
+        <v>1942.567517572958</v>
       </c>
       <c r="C32" t="n">
-        <v>1278.358723975039</v>
+        <v>1573.605000632546</v>
       </c>
       <c r="D32" t="n">
-        <v>1278.358723975039</v>
+        <v>1215.339302025796</v>
       </c>
       <c r="E32" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F32" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6712,40 +6712,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T32" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U32" t="n">
-        <v>2866.097597267229</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V32" t="n">
-        <v>2797.526171216464</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W32" t="n">
-        <v>2797.526171216464</v>
+        <v>2719.306689612891</v>
       </c>
       <c r="X32" t="n">
-        <v>2424.060412955384</v>
+        <v>2719.306689612891</v>
       </c>
       <c r="Y32" t="n">
-        <v>2033.921080979572</v>
+        <v>2329.167357637079</v>
       </c>
     </row>
     <row r="33">
@@ -6770,22 +6770,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6797,10 +6797,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R33" t="n">
         <v>2564.909189125856</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L34" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R34" t="n">
-        <v>3235.775364366698</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S34" t="n">
-        <v>3044.089480193525</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T34" t="n">
-        <v>2822.322864763051</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U34" t="n">
-        <v>2533.219997888694</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V34" t="n">
-        <v>2278.535509682808</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W34" t="n">
-        <v>1989.118339645847</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X34" t="n">
-        <v>1761.12878874783</v>
+        <v>362.8175152271513</v>
       </c>
       <c r="Y34" t="n">
-        <v>1540.336209604299</v>
+        <v>142.0249360836212</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2303.170539913434</v>
+        <v>2175.400891308157</v>
       </c>
       <c r="C35" t="n">
-        <v>1934.208022973022</v>
+        <v>1806.438374367745</v>
       </c>
       <c r="D35" t="n">
-        <v>1575.942324366272</v>
+        <v>1448.172675760995</v>
       </c>
       <c r="E35" t="n">
-        <v>1190.154071768027</v>
+        <v>1062.384423162751</v>
       </c>
       <c r="F35" t="n">
-        <v>779.1681669784198</v>
+        <v>651.3985183731431</v>
       </c>
       <c r="G35" t="n">
-        <v>364.0957168234162</v>
+        <v>236.3260682181396</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6976,13 +6976,13 @@
         <v>3325.605821609171</v>
       </c>
       <c r="W35" t="n">
-        <v>2972.837166339056</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X35" t="n">
-        <v>2693.309871889246</v>
+        <v>2952.140063348091</v>
       </c>
       <c r="Y35" t="n">
-        <v>2303.170539913434</v>
+        <v>2562.000731372279</v>
       </c>
     </row>
     <row r="36">
@@ -7007,10 +7007,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218342</v>
@@ -7019,10 +7019,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7034,10 +7034,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R36" t="n">
         <v>2564.909189125856</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1091.613680441807</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C37" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D37" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E37" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F37" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7116,31 +7116,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V37" t="n">
-        <v>1134.908724368016</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W37" t="n">
-        <v>1134.908724368016</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X37" t="n">
-        <v>1134.908724368016</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y37" t="n">
-        <v>1091.613680441807</v>
+        <v>231.8553933260934</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1091.323932370578</v>
+        <v>1934.181533884357</v>
       </c>
       <c r="C38" t="n">
-        <v>722.3614154301667</v>
+        <v>1565.219016943946</v>
       </c>
       <c r="D38" t="n">
-        <v>364.0957168234162</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E38" t="n">
-        <v>364.0957168234162</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F38" t="n">
-        <v>364.0957168234162</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G38" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
         <v>589.2106210810553</v>
@@ -7186,40 +7186,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T38" t="n">
-        <v>3178.890882011441</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U38" t="n">
-        <v>2925.360405285277</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V38" t="n">
-        <v>2594.297517941706</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W38" t="n">
-        <v>2241.528862671592</v>
+        <v>2972.837166339055</v>
       </c>
       <c r="X38" t="n">
-        <v>1868.063104410512</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y38" t="n">
-        <v>1477.9237724347</v>
+        <v>2320.781373948479</v>
       </c>
     </row>
     <row r="39">
@@ -7244,22 +7244,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7271,10 +7271,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1091.613680441807</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C40" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D40" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7353,31 +7353,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S40" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U40" t="n">
-        <v>1837.464090846021</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V40" t="n">
-        <v>1582.779602640134</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W40" t="n">
-        <v>1582.779602640134</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X40" t="n">
-        <v>1494.054724415577</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y40" t="n">
-        <v>1273.262145272047</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1611.504630229389</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C41" t="n">
-        <v>1242.542113288977</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D41" t="n">
-        <v>892.5704713767946</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
         <v>892.5704713767946</v>
@@ -7402,19 +7402,19 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7423,40 +7423,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U41" t="n">
-        <v>3072.075344883007</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V41" t="n">
-        <v>2741.012457539437</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W41" t="n">
-        <v>2388.243802269322</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X41" t="n">
-        <v>2388.243802269322</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y41" t="n">
-        <v>1998.104470293511</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="42">
@@ -7481,22 +7481,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7508,10 +7508,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
         <v>2564.909189125856</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>481.6572696514548</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="C43" t="n">
-        <v>481.6572696514548</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="D43" t="n">
-        <v>331.5406302391191</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E43" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F43" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7590,31 +7590,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1424.011591242373</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U43" t="n">
-        <v>1134.908724368016</v>
+        <v>1446.505797040962</v>
       </c>
       <c r="V43" t="n">
-        <v>880.2242361621296</v>
+        <v>1301.975811548605</v>
       </c>
       <c r="W43" t="n">
-        <v>709.6468205494722</v>
+        <v>1012.558641511645</v>
       </c>
       <c r="X43" t="n">
-        <v>481.6572696514548</v>
+        <v>784.5690906136274</v>
       </c>
       <c r="Y43" t="n">
-        <v>481.6572696514548</v>
+        <v>563.7765114700973</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2014.778044008242</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C44" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D44" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U44" t="n">
-        <v>3072.075344883007</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V44" t="n">
-        <v>2741.012457539437</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W44" t="n">
-        <v>2388.243802269322</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X44" t="n">
-        <v>2014.778044008242</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y44" t="n">
-        <v>2014.778044008242</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="45">
@@ -7718,22 +7718,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7745,7 +7745,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1007.446783179745</v>
+        <v>362.8459426266613</v>
       </c>
       <c r="C46" t="n">
-        <v>838.5106002518381</v>
+        <v>362.8459426266613</v>
       </c>
       <c r="D46" t="n">
-        <v>688.3939608395024</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E46" t="n">
-        <v>624.6477645191717</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F46" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7827,31 +7827,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T46" t="n">
-        <v>1927.294548088493</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="U46" t="n">
-        <v>1927.294548088493</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V46" t="n">
-        <v>1927.294548088493</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W46" t="n">
-        <v>1637.877378051532</v>
+        <v>993.2765374984485</v>
       </c>
       <c r="X46" t="n">
-        <v>1409.887827153515</v>
+        <v>765.2869866004312</v>
       </c>
       <c r="Y46" t="n">
-        <v>1189.095248009985</v>
+        <v>544.4944074569011</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>111.3760925029335</v>
+        <v>111.3760925029321</v>
       </c>
       <c r="K2" t="n">
-        <v>115.6728628570373</v>
+        <v>115.6728628570353</v>
       </c>
       <c r="L2" t="n">
-        <v>106.2279079411547</v>
+        <v>106.2279079411523</v>
       </c>
       <c r="M2" t="n">
-        <v>86.20968475950988</v>
+        <v>86.20968475950716</v>
       </c>
       <c r="N2" t="n">
-        <v>82.94423508449765</v>
+        <v>82.94423508449486</v>
       </c>
       <c r="O2" t="n">
-        <v>91.79185002470496</v>
+        <v>91.79185002470231</v>
       </c>
       <c r="P2" t="n">
-        <v>113.1917161337059</v>
+        <v>113.1917161337037</v>
       </c>
       <c r="Q2" t="n">
-        <v>133.6616048283659</v>
+        <v>133.6616048283642</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>85.34276391131333</v>
+        <v>85.34276391131253</v>
       </c>
       <c r="K3" t="n">
-        <v>66.92010932096106</v>
+        <v>66.92010932095971</v>
       </c>
       <c r="L3" t="n">
-        <v>43.19189982519387</v>
+        <v>43.19189982519205</v>
       </c>
       <c r="M3" t="n">
-        <v>30.8505177725005</v>
+        <v>30.85051777249838</v>
       </c>
       <c r="N3" t="n">
-        <v>17.11285239577474</v>
+        <v>17.11285239577256</v>
       </c>
       <c r="O3" t="n">
-        <v>38.09915424948349</v>
+        <v>38.0991542494815</v>
       </c>
       <c r="P3" t="n">
-        <v>50.10627990666696</v>
+        <v>50.10627990666536</v>
       </c>
       <c r="Q3" t="n">
-        <v>83.91815189430319</v>
+        <v>83.91815189430213</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>86.23379249476947</v>
+        <v>86.23379249476866</v>
       </c>
       <c r="L4" t="n">
-        <v>80.14168867079417</v>
+        <v>80.14168867079312</v>
       </c>
       <c r="M4" t="n">
-        <v>81.20697904563076</v>
+        <v>81.20697904562965</v>
       </c>
       <c r="N4" t="n">
-        <v>71.33916373595557</v>
+        <v>71.33916373595449</v>
       </c>
       <c r="O4" t="n">
-        <v>86.41153592235854</v>
+        <v>86.41153592235756</v>
       </c>
       <c r="P4" t="n">
-        <v>93.1945133331547</v>
+        <v>93.19451333315385</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -22561,7 +22561,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.48187344321938</v>
+        <v>14.48187344321936</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23266,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>209.4348714989698</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>25.24428266650656</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>64.5626150288706</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>69.07179951320069</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>334.3043346825613</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>290.312918237492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,10 +23655,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>152.1724499918702</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>23.64150968983601</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>351.4967200707133</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>6.325514997265145</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.14213605696602</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>2.05597668801019</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>290.3129182374932</v>
       </c>
       <c r="H20" t="n">
-        <v>89.49498218058341</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>152.1350798790565</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>16.14213605696639</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24217,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>7.407644536403438</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,19 +24259,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>181.1251564493176</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>6.056973756583858</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>31.53991599208778</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24445,13 +24445,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>126.491952119223</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,19 +24496,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>126.9470448471912</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>2.335964134056951</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>147.0909790483781</v>
       </c>
     </row>
     <row r="29">
@@ -24691,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>245.776344970992</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>240.2481823271925</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,13 +24739,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>160.8971509712872</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>16.56157311969795</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24922,10 +24922,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>103.9661575026766</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,19 +24970,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>259.8665466798773</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.0742887270133</v>
+        <v>105.0742887270139</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>168.0688818921498</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -25216,10 +25216,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>92.99907917315659</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696645</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>175.7225598651479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25399,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,13 +25444,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>58.67017993786757</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>110.4338048678521</v>
       </c>
     </row>
     <row r="39">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,22 +25599,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>105.074288727014</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>137.872025946726</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25633,10 +25633,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>8.211116127622233</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>290.3129182374932</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>109.0529576863949</v>
       </c>
       <c r="W43" t="n">
-        <v>117.6513568800601</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>327.0855007190652</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>331.889848010419</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>83.3252282894418</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>208.6757513281053</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>846782.8034841282</v>
+        <v>846782.8034841273</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>675923.3343635172</v>
+        <v>675923.3343635171</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>675923.3343635171</v>
+        <v>675923.334363517</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>675923.334363517</v>
+        <v>675923.3343635171</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>675923.3343635174</v>
+        <v>675923.334363517</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>675923.3343635171</v>
+        <v>675923.3343635169</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>675923.334363517</v>
+        <v>675923.3343635171</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>675923.3343635171</v>
+        <v>675923.3343635172</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>675923.3343635171</v>
+        <v>675923.334363517</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>675923.3343635172</v>
+        <v>675923.3343635171</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>634989.8016103011</v>
+        <v>634989.8016103015</v>
       </c>
       <c r="C2" t="n">
         <v>634997.38795516</v>
@@ -26322,40 +26322,40 @@
         <v>635003.8400110491</v>
       </c>
       <c r="E2" t="n">
-        <v>528545.5034049269</v>
+        <v>528545.5034049271</v>
       </c>
       <c r="F2" t="n">
         <v>528545.503404927</v>
       </c>
       <c r="G2" t="n">
-        <v>528545.5034049271</v>
+        <v>528545.5034049269</v>
       </c>
       <c r="H2" t="n">
+        <v>528545.5034049269</v>
+      </c>
+      <c r="I2" t="n">
+        <v>528545.5034049267</v>
+      </c>
+      <c r="J2" t="n">
         <v>528545.503404927</v>
       </c>
-      <c r="I2" t="n">
-        <v>528545.5034049271</v>
-      </c>
-      <c r="J2" t="n">
-        <v>528545.5034049271</v>
-      </c>
       <c r="K2" t="n">
-        <v>528545.5034049271</v>
+        <v>528545.5034049267</v>
       </c>
       <c r="L2" t="n">
         <v>528545.503404927</v>
       </c>
       <c r="M2" t="n">
-        <v>528545.5034049269</v>
+        <v>528545.5034049271</v>
       </c>
       <c r="N2" t="n">
-        <v>528545.5034049269</v>
+        <v>528545.5034049267</v>
       </c>
       <c r="O2" t="n">
-        <v>528545.503404927</v>
+        <v>528545.5034049271</v>
       </c>
       <c r="P2" t="n">
-        <v>528545.5034049269</v>
+        <v>528545.5034049271</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>196760.0786190557</v>
+        <v>196760.0786190594</v>
       </c>
       <c r="C3" t="n">
-        <v>27855.40645598595</v>
+        <v>27855.40645598239</v>
       </c>
       <c r="D3" t="n">
         <v>22280.77012981693</v>
       </c>
       <c r="E3" t="n">
-        <v>914243.4502001547</v>
+        <v>914243.4502001542</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.5682920729</v>
+        <v>207188.568292073</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>383584.3557858189</v>
+        <v>383584.3557858178</v>
       </c>
       <c r="C4" t="n">
         <v>374928.5597385823</v>
@@ -26426,13 +26426,13 @@
         <v>367844.6478819705</v>
       </c>
       <c r="E4" t="n">
-        <v>11600.2349971284</v>
+        <v>11600.23499712842</v>
       </c>
       <c r="F4" t="n">
-        <v>11600.23499712838</v>
+        <v>11600.23499712842</v>
       </c>
       <c r="G4" t="n">
-        <v>11600.2349971284</v>
+        <v>11600.23499712841</v>
       </c>
       <c r="H4" t="n">
         <v>11600.2349971284</v>
@@ -26447,16 +26447,16 @@
         <v>11600.2349971284</v>
       </c>
       <c r="L4" t="n">
-        <v>11600.2349971284</v>
+        <v>11600.23499712842</v>
       </c>
       <c r="M4" t="n">
-        <v>11600.2349971284</v>
+        <v>11600.23499712841</v>
       </c>
       <c r="N4" t="n">
-        <v>11600.2349971284</v>
+        <v>11600.23499712842</v>
       </c>
       <c r="O4" t="n">
-        <v>11600.2349971284</v>
+        <v>11600.23499712841</v>
       </c>
       <c r="P4" t="n">
         <v>11600.2349971284</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38078.94064598071</v>
+        <v>38078.94064598079</v>
       </c>
       <c r="C5" t="n">
         <v>38745.80483114667</v>
@@ -26478,40 +26478,40 @@
         <v>39312.96135688073</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16566.42655944585</v>
+        <v>16523.92430026543</v>
       </c>
       <c r="C6" t="n">
-        <v>193467.616929445</v>
+        <v>193425.3593910725</v>
       </c>
       <c r="D6" t="n">
-        <v>205565.4606423809</v>
+        <v>205523.4112348399</v>
       </c>
       <c r="E6" t="n">
-        <v>-471604.5223537495</v>
+        <v>-475080.7116518099</v>
       </c>
       <c r="F6" t="n">
-        <v>442638.9278464051</v>
+        <v>439162.7385483442</v>
       </c>
       <c r="G6" t="n">
-        <v>442638.9278464057</v>
+        <v>439162.7385483438</v>
       </c>
       <c r="H6" t="n">
-        <v>442638.9278464053</v>
+        <v>439162.7385483441</v>
       </c>
       <c r="I6" t="n">
-        <v>442638.9278464054</v>
+        <v>439162.738548344</v>
       </c>
       <c r="J6" t="n">
-        <v>442638.9278464054</v>
+        <v>439162.7385483442</v>
       </c>
       <c r="K6" t="n">
-        <v>442638.9278464054</v>
+        <v>439162.738548344</v>
       </c>
       <c r="L6" t="n">
-        <v>442638.9278464053</v>
+        <v>439162.7385483442</v>
       </c>
       <c r="M6" t="n">
-        <v>235450.3595543322</v>
+        <v>231974.1702562713</v>
       </c>
       <c r="N6" t="n">
-        <v>442638.9278464052</v>
+        <v>439162.738548344</v>
       </c>
       <c r="O6" t="n">
-        <v>442638.9278464053</v>
+        <v>439162.7385483444</v>
       </c>
       <c r="P6" t="n">
-        <v>442638.9278464052</v>
+        <v>439162.7385483444</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>204.1899378890236</v>
+        <v>204.1899378890274</v>
       </c>
       <c r="C3" t="n">
         <v>234.7800381259942</v>
@@ -26749,7 +26749,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>204.1899378890236</v>
+        <v>204.1899378890274</v>
       </c>
       <c r="C3" t="n">
-        <v>30.59010023697065</v>
+        <v>30.59010023696675</v>
       </c>
       <c r="D3" t="n">
         <v>26.01635439147063</v>
       </c>
       <c r="E3" t="n">
-        <v>828.9803080758335</v>
+        <v>828.980308075833</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>331.0681279392608</v>
+        <v>331.0681279392606</v>
       </c>
       <c r="I2" t="n">
-        <v>178.8295274378769</v>
+        <v>178.8295274378763</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>98.30551518367682</v>
+        <v>98.30551518367582</v>
       </c>
       <c r="S2" t="n">
-        <v>190.314629547467</v>
+        <v>190.3146295474666</v>
       </c>
       <c r="T2" t="n">
-        <v>219.5025170893205</v>
+        <v>219.5025170893204</v>
       </c>
       <c r="U2" t="n">
         <v>251.2799837820832</v>
@@ -27472,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.9043161647324</v>
+        <v>136.9043161647323</v>
       </c>
       <c r="H3" t="n">
-        <v>107.9936872248773</v>
+        <v>107.9936872248772</v>
       </c>
       <c r="I3" t="n">
-        <v>74.27501952661474</v>
+        <v>74.27501952661446</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.88884584361466</v>
+        <v>72.88884584361413</v>
       </c>
       <c r="S3" t="n">
-        <v>163.5252051891207</v>
+        <v>163.5252051891206</v>
       </c>
       <c r="T3" t="n">
-        <v>198.3944404597272</v>
+        <v>198.3944404597271</v>
       </c>
       <c r="U3" t="n">
         <v>225.9124872784434</v>
@@ -27554,13 +27554,13 @@
         <v>167.6227679950523</v>
       </c>
       <c r="H4" t="n">
-        <v>158.9534387491533</v>
+        <v>158.9534387491532</v>
       </c>
       <c r="I4" t="n">
-        <v>144.3773550168175</v>
+        <v>144.3773550168173</v>
       </c>
       <c r="J4" t="n">
-        <v>67.32663672383777</v>
+        <v>67.32663672383727</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>55.32936263045183</v>
+        <v>55.32936263045124</v>
       </c>
       <c r="R4" t="n">
-        <v>160.7372695280037</v>
+        <v>160.7372695280034</v>
       </c>
       <c r="S4" t="n">
-        <v>217.5996781856074</v>
+        <v>217.5996781856072</v>
       </c>
       <c r="T4" t="n">
         <v>226.3723226937267</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8208640719156719</v>
+        <v>0.8208640719156876</v>
       </c>
       <c r="H2" t="n">
-        <v>8.406674176506378</v>
+        <v>8.406674176506538</v>
       </c>
       <c r="I2" t="n">
-        <v>31.64636213252897</v>
+        <v>31.64636213252958</v>
       </c>
       <c r="J2" t="n">
-        <v>69.66981202375283</v>
+        <v>69.66981202375416</v>
       </c>
       <c r="K2" t="n">
-        <v>104.4169881879432</v>
+        <v>104.4169881879452</v>
       </c>
       <c r="L2" t="n">
-        <v>129.5385070288325</v>
+        <v>129.538507028835</v>
       </c>
       <c r="M2" t="n">
-        <v>144.1365484677629</v>
+        <v>144.1365484677656</v>
       </c>
       <c r="N2" t="n">
-        <v>146.4688285120933</v>
+        <v>146.4688285120961</v>
       </c>
       <c r="O2" t="n">
-        <v>138.3063613969818</v>
+        <v>138.3063613969844</v>
       </c>
       <c r="P2" t="n">
-        <v>118.0412796215636</v>
+        <v>118.0412796215659</v>
       </c>
       <c r="Q2" t="n">
-        <v>88.64408504608357</v>
+        <v>88.64408504608527</v>
       </c>
       <c r="R2" t="n">
-        <v>51.56360275747287</v>
+        <v>51.56360275747386</v>
       </c>
       <c r="S2" t="n">
-        <v>18.7054400387784</v>
+        <v>18.70544003877875</v>
       </c>
       <c r="T2" t="n">
-        <v>3.593332474810856</v>
+        <v>3.593332474810925</v>
       </c>
       <c r="U2" t="n">
-        <v>0.06566912575325375</v>
+        <v>0.06566912575325499</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4392009984782771</v>
+        <v>0.4392009984782855</v>
       </c>
       <c r="H3" t="n">
-        <v>4.241757011619151</v>
+        <v>4.241757011619232</v>
       </c>
       <c r="I3" t="n">
-        <v>15.12161332480033</v>
+        <v>15.12161332480062</v>
       </c>
       <c r="J3" t="n">
-        <v>41.49486275535337</v>
+        <v>41.49486275535416</v>
       </c>
       <c r="K3" t="n">
-        <v>70.92132965339793</v>
+        <v>70.92132965339928</v>
       </c>
       <c r="L3" t="n">
-        <v>95.36247995468031</v>
+        <v>95.36247995468213</v>
       </c>
       <c r="M3" t="n">
-        <v>111.2835161495178</v>
+        <v>111.2835161495199</v>
       </c>
       <c r="N3" t="n">
-        <v>114.2288596875586</v>
+        <v>114.2288596875607</v>
       </c>
       <c r="O3" t="n">
-        <v>104.4970901949609</v>
+        <v>104.4970901949629</v>
       </c>
       <c r="P3" t="n">
-        <v>83.86812750766329</v>
+        <v>83.86812750766488</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.06362219171832</v>
+        <v>56.06362219171939</v>
       </c>
       <c r="R3" t="n">
-        <v>27.26898830902848</v>
+        <v>27.268988309029</v>
       </c>
       <c r="S3" t="n">
-        <v>8.157965914717115</v>
+        <v>8.15796591471727</v>
       </c>
       <c r="T3" t="n">
-        <v>1.770288235094458</v>
+        <v>1.770288235094492</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02889480253146561</v>
+        <v>0.02889480253146616</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3682113634064359</v>
+        <v>0.3682113634064429</v>
       </c>
       <c r="H4" t="n">
-        <v>3.273733758286314</v>
+        <v>3.273733758286376</v>
       </c>
       <c r="I4" t="n">
-        <v>11.07311991044082</v>
+        <v>11.07311991044103</v>
       </c>
       <c r="J4" t="n">
-        <v>26.03254339283502</v>
+        <v>26.03254339283551</v>
       </c>
       <c r="K4" t="n">
-        <v>42.77946567576591</v>
+        <v>42.77946567576672</v>
       </c>
       <c r="L4" t="n">
-        <v>54.74298761044412</v>
+        <v>54.74298761044516</v>
       </c>
       <c r="M4" t="n">
-        <v>57.7188049019743</v>
+        <v>57.7188049019754</v>
       </c>
       <c r="N4" t="n">
-        <v>56.34638072927763</v>
+        <v>56.34638072927871</v>
       </c>
       <c r="O4" t="n">
-        <v>52.04500252948425</v>
+        <v>52.04500252948524</v>
       </c>
       <c r="P4" t="n">
-        <v>44.53349071599292</v>
+        <v>44.53349071599376</v>
       </c>
       <c r="Q4" t="n">
-        <v>30.83268062124256</v>
+        <v>30.83268062124314</v>
       </c>
       <c r="R4" t="n">
-        <v>16.55612184916574</v>
+        <v>16.55612184916605</v>
       </c>
       <c r="S4" t="n">
-        <v>6.416919851364884</v>
+        <v>6.416919851365007</v>
       </c>
       <c r="T4" t="n">
-        <v>1.573266734554771</v>
+        <v>1.573266734554801</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02008425618580562</v>
+        <v>0.020084256185806</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H12" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q13" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222479</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222479</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
